--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3365,4 +3366,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0976</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4182,4 +4183,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4961,4 +4962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4970,7 +4971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4981,17 +4982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5001,14 +5022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.6</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5017,14 +5060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.01</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5033,14 +5098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.35</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5049,13 +5136,2695 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3884</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8524</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>57.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7723,7 +7724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7734,17 +7735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7754,14 +7775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.58</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7770,14 +7813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.6</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7786,14 +7851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.01</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7802,14 +7889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.35</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7818,13 +7927,1231 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3875</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9034,7 +9035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9045,17 +9046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9065,14 +9086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.53</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>234.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -9081,14 +9124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.58</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9097,14 +9162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.6</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9113,14 +9200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.01</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -9129,14 +9238,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.35</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -9145,13 +9276,1283 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6898</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6785</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>32.91</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>23.53</v>
+        <v>32.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>41.58</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>16.6</v>
+        <v>41.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>12.01</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>16.35</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.15</v>
       </c>
     </row>
@@ -600,6 +617,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1648</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9579</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4830</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015573</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3293,7 +4772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6045,7 +7524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6823,7 +8302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7639,7 +9118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8531,7 +10010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002938-鹏鼎控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>29.07</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>32.91</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>23.53</v>
+        <v>32.91</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>41.58</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>16.6</v>
+        <v>41.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>12.01</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>16.35</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2060 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>18.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5684</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002191</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银汇理物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2664,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2928</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9534</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015573</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +6043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3462,7 +7427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4772,7 +8737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7524,7 +11489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8302,7 +12267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9118,7 +13083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10008,2034 +13973,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>209.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.7237</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009808</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达创新成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>84.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1312</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7878</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159994</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>47.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2835</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6022</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>540010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信科技先锋股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5684</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5416</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5097</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>080012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛电子信息产业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4605</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009774</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通资管优选回报一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4248</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城品质投资混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4139</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3405</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3079</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163503</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天治核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2268</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005495</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2068</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1786</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1775</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>165313</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信优势动力混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1709</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>159811</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时中证5G产业50ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1644</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005943</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1568</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501098</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1455</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002000</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信新生利混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1392</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1390</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1282</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005944</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1278</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001028</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安物联网主题股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1145</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1012</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>690011</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>民生加银积极成长混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>29.79</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0742</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000547</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>建信健康民生混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.71</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005175</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004218</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>前海开源裕和混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001323</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007502</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>前海开源裕和混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005496</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002191</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>农银汇理物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>000549</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华安大国新经济股票</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002170</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>